--- a/明正國小確診通報.xlsx
+++ b/明正國小確診通報.xlsx
@@ -1,172 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="表單回應 1" sheetId="1" r:id="rId4"/>
+    <sheet name="表單回應 1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
-  <si>
-    <t>2022/6/13 上午 9:21:10</t>
-  </si>
-  <si>
-    <t>首次通報</t>
-  </si>
-  <si>
-    <t>學生</t>
-  </si>
-  <si>
-    <t>丁芊涵</t>
-  </si>
-  <si>
-    <t>一年級</t>
-  </si>
-  <si>
-    <t>丁班</t>
-  </si>
-  <si>
-    <t>快篩陽</t>
-  </si>
-  <si>
-    <t>在家中</t>
-  </si>
-  <si>
-    <t>6/12快篩陽</t>
-  </si>
-  <si>
-    <t>2022/6/13 上午 9:22:14</t>
-  </si>
-  <si>
-    <t>張祐慈</t>
-  </si>
-  <si>
-    <t>六年級</t>
-  </si>
-  <si>
-    <t>丙班</t>
-  </si>
-  <si>
-    <t>6/12快篩陽，已跟導師通知畢業當日不可到校</t>
-  </si>
-  <si>
-    <t>2022/6/13 上午 9:22:53</t>
-  </si>
-  <si>
-    <t>之前已有通報，本次為資訊更新</t>
-  </si>
-  <si>
-    <t>王藝凱</t>
-  </si>
-  <si>
-    <t>戊班</t>
-  </si>
-  <si>
-    <t>在醫院</t>
-  </si>
-  <si>
-    <t>持續發燒，昨晚掛急診（6/12已通報）</t>
-  </si>
-  <si>
-    <t>陳冠佑</t>
-  </si>
-  <si>
-    <t>疑似確診</t>
-  </si>
-  <si>
-    <t>1208陳建佑及1505陳冠佑的媽媽今日快篩陽，兄弟目前無症狀未快篩</t>
-  </si>
-  <si>
-    <t>2022/6/13 上午 9:24:55</t>
-  </si>
-  <si>
-    <t>王品洋</t>
-  </si>
-  <si>
-    <t>五年級</t>
-  </si>
-  <si>
-    <t>己班</t>
-  </si>
-  <si>
-    <t>5608王品洋的哥哥今天快篩陽，（哥哥國中生，王品洋目前快篩陰）。</t>
-  </si>
-  <si>
-    <t>2022/6/13 上午 9:25:39</t>
-  </si>
-  <si>
-    <t>劉羽騰</t>
-  </si>
-  <si>
-    <t>二年級</t>
-  </si>
-  <si>
-    <t>乙班</t>
-  </si>
-  <si>
-    <t>2202劉羽騰（妹妹1120劉詩柔已於6/10快篩陽通報</t>
-  </si>
-  <si>
-    <t>2022/6/13 上午 9:27:01</t>
-  </si>
-  <si>
-    <t>導師</t>
-  </si>
-  <si>
-    <t>曾端端</t>
-  </si>
-  <si>
-    <t>端端老師的當兵兒子快篩陽(6/10返家，6/13反軍中快篩陽)，現端端老師已返家（老師尚未快篩因無症狀）</t>
-  </si>
-  <si>
-    <t>女</t>
-  </si>
-  <si>
-    <t>2022/6/13 上午 10:31:59</t>
-  </si>
-  <si>
-    <t>林宥丞</t>
-  </si>
-  <si>
-    <t>學童的哥哥(軍中6/13快篩陽，哥哥6/11-6/13返家有接觸)</t>
-  </si>
-  <si>
-    <t>甲班</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="59" formatCode="m/d/yyyy h:mm:ss"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss"/>
   </numFmts>
   <fonts count="3">
     <font>
+      <name val="Arial"/>
+      <color indexed="8"/>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
     </font>
     <font>
+      <name val="Helvetica Neue"/>
+      <color indexed="8"/>
       <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <color indexed="8"/>
       <sz val="15"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -203,35 +73,38 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="59" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="ff000000"/>
@@ -1305,678 +1178,850 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AN11"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" defaultGridColor="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.6667" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="18.8516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.8516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.17188" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.7656" style="1" customWidth="1"/>
-    <col min="5" max="6" width="7" style="1" customWidth="1"/>
-    <col min="7" max="7" width="6" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.1719" style="1" customWidth="1"/>
-    <col min="10" max="11" width="21.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="7.67188" style="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9.5" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10.6719" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.8516" style="1" customWidth="1"/>
-    <col min="17" max="17" width="16.3516" style="1" customWidth="1"/>
-    <col min="18" max="18" width="15.8516" style="1" customWidth="1"/>
-    <col min="19" max="19" width="19.3516" style="1" customWidth="1"/>
-    <col min="20" max="40" width="18.8516" style="1" customWidth="1"/>
-    <col min="41" max="16384" width="12.6719" style="1" customWidth="1"/>
+    <col width="18.8516" customWidth="1" style="1" min="1" max="1"/>
+    <col width="13.8516" customWidth="1" style="1" min="2" max="2"/>
+    <col width="8.17188" customWidth="1" style="1" min="3" max="3"/>
+    <col width="24.7656" customWidth="1" style="1" min="4" max="4"/>
+    <col width="7" customWidth="1" style="1" min="5" max="6"/>
+    <col width="6" customWidth="1" style="1" min="7" max="7"/>
+    <col width="8" customWidth="1" style="1" min="8" max="8"/>
+    <col width="11.1719" customWidth="1" style="1" min="9" max="9"/>
+    <col width="21.5" customWidth="1" style="1" min="10" max="11"/>
+    <col width="7.67188" customWidth="1" style="1" min="12" max="12"/>
+    <col width="7.5" customWidth="1" style="1" min="13" max="13"/>
+    <col width="9.5" customWidth="1" style="1" min="14" max="14"/>
+    <col width="10.6719" customWidth="1" style="1" min="15" max="15"/>
+    <col width="13.8516" customWidth="1" style="1" min="16" max="16"/>
+    <col width="16.3516" customWidth="1" style="1" min="17" max="17"/>
+    <col width="15.8516" customWidth="1" style="1" min="18" max="18"/>
+    <col width="19.3516" customWidth="1" style="1" min="19" max="19"/>
+    <col width="18.8516" customWidth="1" style="1" min="20" max="40"/>
+    <col width="12.6719" customWidth="1" style="1" min="41" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.65" customHeight="1">
-      <c r="A1" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="2">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="2">
+    <row r="1" ht="13.65" customHeight="1" s="6">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>該筆資料ok</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>首次通報</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>學生</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>潘竑杰</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>一年級</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>乙班</t>
+        </is>
+      </c>
+      <c r="G1" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>疑似確診</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>在家中</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>導師通報：同住爸爸、阿公、阿嬤皆快篩陽。學童目前快篩陰。</t>
+        </is>
+      </c>
+      <c r="K1" s="4" t="n"/>
+      <c r="L1" s="4" t="n"/>
+      <c r="M1" s="4" t="n"/>
+      <c r="N1" s="4" t="n"/>
+      <c r="O1" s="4" t="n"/>
+      <c r="P1" s="4" t="n"/>
+      <c r="Q1" s="4" t="n"/>
+      <c r="R1" s="4" t="n"/>
+      <c r="S1" s="4" t="n"/>
+      <c r="T1" s="4" t="n"/>
+      <c r="U1" s="4" t="n"/>
+      <c r="V1" s="4" t="n"/>
+      <c r="W1" s="4" t="n"/>
+      <c r="X1" s="4" t="n"/>
+      <c r="Y1" s="4" t="n"/>
+      <c r="Z1" s="4" t="n"/>
+      <c r="AA1" s="4" t="n"/>
+      <c r="AB1" s="4" t="n"/>
+      <c r="AC1" s="4" t="n"/>
+      <c r="AD1" s="4" t="n"/>
+      <c r="AE1" s="4" t="n"/>
+      <c r="AF1" s="4" t="n"/>
+      <c r="AG1" s="4" t="n"/>
+      <c r="AH1" s="4" t="n"/>
+      <c r="AI1" s="4" t="n"/>
+      <c r="AJ1" s="4" t="n"/>
+      <c r="AK1" s="4" t="n"/>
+      <c r="AL1" s="4" t="n"/>
+      <c r="AM1" s="4" t="n"/>
+      <c r="AN1" s="4" t="n"/>
+    </row>
+    <row r="2" ht="13.65" customHeight="1" s="6">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>該筆資料ok</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>首次通報</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>學生</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>梁哲豪</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>六年級</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>丁班</t>
+        </is>
+      </c>
+      <c r="G2" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>疑似確診</t>
+        </is>
+      </c>
+      <c r="I2" s="2" t="inlineStr">
+        <is>
+          <t>在家中</t>
+        </is>
+      </c>
+      <c r="J2" s="2" t="inlineStr">
+        <is>
+          <t>導師通報：學童媽媽昨日6/14確診，學童目前無症狀，未快篩。已告知導師明天畢業典禮勿到校。</t>
+        </is>
+      </c>
+      <c r="K2" s="4" t="n"/>
+      <c r="L2" s="4" t="n"/>
+      <c r="M2" s="4" t="n"/>
+      <c r="N2" s="4" t="n"/>
+      <c r="O2" s="4" t="n"/>
+      <c r="P2" s="4" t="n"/>
+      <c r="Q2" s="4" t="n"/>
+      <c r="R2" s="4" t="n"/>
+      <c r="S2" s="4" t="n"/>
+      <c r="T2" s="4" t="n"/>
+      <c r="U2" s="4" t="n"/>
+      <c r="V2" s="4" t="n"/>
+      <c r="W2" s="4" t="n"/>
+      <c r="X2" s="4" t="n"/>
+      <c r="Y2" s="4" t="n"/>
+      <c r="Z2" s="4" t="n"/>
+      <c r="AA2" s="4" t="n"/>
+      <c r="AB2" s="4" t="n"/>
+      <c r="AC2" s="4" t="n"/>
+      <c r="AD2" s="4" t="n"/>
+      <c r="AE2" s="4" t="n"/>
+      <c r="AF2" s="4" t="n"/>
+      <c r="AG2" s="4" t="n"/>
+      <c r="AH2" s="4" t="n"/>
+      <c r="AI2" s="4" t="n"/>
+      <c r="AJ2" s="4" t="n"/>
+      <c r="AK2" s="4" t="n"/>
+      <c r="AL2" s="4" t="n"/>
+      <c r="AM2" s="4" t="n"/>
+      <c r="AN2" s="4" t="n"/>
+    </row>
+    <row r="3" ht="13.65" customHeight="1" s="6">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>該筆資料ok</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>首次通報</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>學生</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>張羽彤</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>二年級</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>乙班</t>
+        </is>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="H3" s="2" t="inlineStr">
+        <is>
+          <t>快篩陽</t>
+        </is>
+      </c>
+      <c r="I3" s="2" t="inlineStr">
+        <is>
+          <t>在家中</t>
+        </is>
+      </c>
+      <c r="J3" s="2" t="inlineStr">
+        <is>
+          <t>導師通知：學童昨日快篩陽，已視訊就診。</t>
+        </is>
+      </c>
+      <c r="K3" s="4" t="n"/>
+      <c r="L3" s="4" t="n"/>
+      <c r="M3" s="4" t="n"/>
+      <c r="N3" s="4" t="n"/>
+      <c r="O3" s="4" t="n"/>
+      <c r="P3" s="4" t="n"/>
+      <c r="Q3" s="4" t="n"/>
+      <c r="R3" s="4" t="n"/>
+      <c r="S3" s="4" t="n"/>
+      <c r="T3" s="4" t="n"/>
+      <c r="U3" s="4" t="n"/>
+      <c r="V3" s="4" t="n"/>
+      <c r="W3" s="4" t="n"/>
+      <c r="X3" s="4" t="n"/>
+      <c r="Y3" s="4" t="n"/>
+      <c r="Z3" s="4" t="n"/>
+      <c r="AA3" s="4" t="n"/>
+      <c r="AB3" s="4" t="n"/>
+      <c r="AC3" s="4" t="n"/>
+      <c r="AD3" s="4" t="n"/>
+      <c r="AE3" s="4" t="n"/>
+      <c r="AF3" s="4" t="n"/>
+      <c r="AG3" s="4" t="n"/>
+      <c r="AH3" s="4" t="n"/>
+      <c r="AI3" s="4" t="n"/>
+      <c r="AJ3" s="4" t="n"/>
+      <c r="AK3" s="4" t="n"/>
+      <c r="AL3" s="4" t="n"/>
+      <c r="AM3" s="4" t="n"/>
+      <c r="AN3" s="4" t="n"/>
+    </row>
+    <row r="4" ht="13.65" customHeight="1" s="6">
+      <c r="A4" s="7" t="inlineStr">
+        <is>
+          <t>該筆資料ok</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>首次通報</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>學生</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>陳宥妤</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>三年級</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>乙班</t>
+        </is>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>23</v>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>疑似確診</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>在家中</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>導師通報：學童媽媽6/12快篩陽，學童目前無症狀，未快篩。</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="n"/>
+      <c r="L4" s="4" t="n"/>
+      <c r="M4" s="4" t="n"/>
+      <c r="N4" s="4" t="n"/>
+      <c r="O4" s="4" t="n"/>
+      <c r="P4" s="4" t="n"/>
+      <c r="Q4" s="4" t="n"/>
+      <c r="R4" s="4" t="n"/>
+      <c r="S4" s="4" t="n"/>
+      <c r="T4" s="4" t="n"/>
+      <c r="U4" s="4" t="n"/>
+      <c r="V4" s="4" t="n"/>
+      <c r="W4" s="4" t="n"/>
+      <c r="X4" s="4" t="n"/>
+      <c r="Y4" s="4" t="n"/>
+      <c r="Z4" s="4" t="n"/>
+      <c r="AA4" s="4" t="n"/>
+      <c r="AB4" s="4" t="n"/>
+      <c r="AC4" s="4" t="n"/>
+      <c r="AD4" s="4" t="n"/>
+      <c r="AE4" s="4" t="n"/>
+      <c r="AF4" s="4" t="n"/>
+      <c r="AG4" s="4" t="n"/>
+      <c r="AH4" s="4" t="n"/>
+      <c r="AI4" s="4" t="n"/>
+      <c r="AJ4" s="4" t="n"/>
+      <c r="AK4" s="4" t="n"/>
+      <c r="AL4" s="4" t="n"/>
+      <c r="AM4" s="4" t="n"/>
+      <c r="AN4" s="4" t="n"/>
+    </row>
+    <row r="5" ht="13.65" customHeight="1" s="6">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>該筆資料ok</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>之前已有通報，本次為資訊更新</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>科任教師</t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="n"/>
+      <c r="E5" s="4" t="n"/>
+      <c r="F5" s="4" t="n"/>
+      <c r="G5" s="4" t="n"/>
+      <c r="H5" s="4" t="n"/>
+      <c r="I5" s="4" t="n"/>
+      <c r="J5" s="4" t="n"/>
+      <c r="K5" s="4" t="n"/>
+      <c r="L5" s="4" t="n"/>
+      <c r="M5" s="4" t="n"/>
+      <c r="N5" s="4" t="n"/>
+      <c r="O5" s="4" t="n"/>
+      <c r="P5" s="4" t="n"/>
+      <c r="Q5" s="4" t="n"/>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>陳嘉慧</t>
+        </is>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>69</v>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>疑似確診</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>在家中</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>老師今日續報：婆婆及大哥也快篩陽。</t>
+        </is>
+      </c>
+      <c r="W5" s="4" t="n"/>
+      <c r="X5" s="4" t="n"/>
+      <c r="Y5" s="4" t="n"/>
+      <c r="Z5" s="4" t="n"/>
+      <c r="AA5" s="4" t="n"/>
+      <c r="AB5" s="4" t="n"/>
+      <c r="AC5" s="4" t="n"/>
+      <c r="AD5" s="2" t="inlineStr">
+        <is>
+          <t>女</t>
+        </is>
+      </c>
+      <c r="AE5" s="4" t="n"/>
+      <c r="AF5" s="4" t="n"/>
+      <c r="AG5" s="4" t="n"/>
+      <c r="AH5" s="4" t="n"/>
+      <c r="AI5" s="4" t="n"/>
+      <c r="AJ5" s="4" t="n"/>
+      <c r="AK5" s="4" t="n"/>
+      <c r="AL5" s="4" t="n"/>
+      <c r="AM5" s="4" t="n"/>
+      <c r="AN5" s="4" t="n"/>
+    </row>
+    <row r="6" ht="13.65" customHeight="1" s="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>該筆資料ok</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>首次通報</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>學生</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>潘竑杰</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>一年級</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>乙班</t>
+        </is>
+      </c>
+      <c r="G6" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s" s="2">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
-      <c r="AB1" s="4"/>
-      <c r="AC1" s="4"/>
-      <c r="AD1" s="4"/>
-      <c r="AE1" s="4"/>
-      <c r="AF1" s="4"/>
-      <c r="AG1" s="4"/>
-      <c r="AH1" s="4"/>
-      <c r="AI1" s="4"/>
-      <c r="AJ1" s="4"/>
-      <c r="AK1" s="4"/>
-      <c r="AL1" s="4"/>
-      <c r="AM1" s="4"/>
-      <c r="AN1" s="4"/>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>疑似確診</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>在家中</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>導師通報：同住爸爸、阿公、阿嬤皆快篩陽。學童目前快篩陰。</t>
+        </is>
+      </c>
+      <c r="K6" s="4" t="n"/>
+      <c r="L6" s="4" t="n"/>
+      <c r="M6" s="4" t="n"/>
+      <c r="N6" s="4" t="n"/>
+      <c r="O6" s="4" t="n"/>
+      <c r="P6" s="4" t="n"/>
+      <c r="Q6" s="4" t="n"/>
+      <c r="R6" s="4" t="n"/>
+      <c r="S6" s="4" t="n"/>
+      <c r="T6" s="4" t="n"/>
+      <c r="U6" s="4" t="n"/>
+      <c r="V6" s="4" t="n"/>
+      <c r="W6" s="4" t="n"/>
+      <c r="X6" s="4" t="n"/>
+      <c r="Y6" s="4" t="n"/>
+      <c r="Z6" s="4" t="n"/>
+      <c r="AA6" s="4" t="n"/>
+      <c r="AB6" s="4" t="n"/>
+      <c r="AC6" s="4" t="n"/>
+      <c r="AD6" s="4" t="n"/>
+      <c r="AE6" s="4" t="n"/>
+      <c r="AF6" s="4" t="n"/>
+      <c r="AG6" s="4" t="n"/>
+      <c r="AH6" s="4" t="n"/>
+      <c r="AI6" s="4" t="n"/>
+      <c r="AJ6" s="4" t="n"/>
+      <c r="AK6" s="4" t="n"/>
+      <c r="AL6" s="4" t="n"/>
+      <c r="AM6" s="4" t="n"/>
+      <c r="AN6" s="4" t="n"/>
     </row>
-    <row r="2" ht="13.65" customHeight="1">
-      <c r="A2" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="2">
+    <row r="7" ht="13.65" customHeight="1" s="6">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>該筆資料ok</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>首次通報</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>學生</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>梁哲豪</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>六年級</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>丁班</t>
+        </is>
+      </c>
+      <c r="G7" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="D2" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="G2" s="3">
-        <v>26</v>
-      </c>
-      <c r="H2" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="I2" t="s" s="2">
-        <v>7</v>
-      </c>
-      <c r="J2" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="4"/>
-      <c r="AB2" s="4"/>
-      <c r="AC2" s="4"/>
-      <c r="AD2" s="4"/>
-      <c r="AE2" s="4"/>
-      <c r="AF2" s="4"/>
-      <c r="AG2" s="4"/>
-      <c r="AH2" s="4"/>
-      <c r="AI2" s="4"/>
-      <c r="AJ2" s="4"/>
-      <c r="AK2" s="4"/>
-      <c r="AL2" s="4"/>
-      <c r="AM2" s="4"/>
-      <c r="AN2" s="4"/>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>疑似確診</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>在家中</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>導師通報：學童媽媽昨日6/14確診，學童目前無症狀，未快篩。已告知導師明天畢業典禮勿到校。</t>
+        </is>
+      </c>
+      <c r="K7" s="4" t="n"/>
+      <c r="L7" s="4" t="n"/>
+      <c r="M7" s="4" t="n"/>
+      <c r="N7" s="4" t="n"/>
+      <c r="O7" s="4" t="n"/>
+      <c r="P7" s="4" t="n"/>
+      <c r="Q7" s="4" t="n"/>
+      <c r="R7" s="4" t="n"/>
+      <c r="S7" s="4" t="n"/>
+      <c r="T7" s="4" t="n"/>
+      <c r="U7" s="4" t="n"/>
+      <c r="V7" s="4" t="n"/>
+      <c r="W7" s="4" t="n"/>
+      <c r="X7" s="4" t="n"/>
+      <c r="Y7" s="4" t="n"/>
+      <c r="Z7" s="4" t="n"/>
+      <c r="AA7" s="4" t="n"/>
+      <c r="AB7" s="4" t="n"/>
+      <c r="AC7" s="4" t="n"/>
+      <c r="AD7" s="4" t="n"/>
+      <c r="AE7" s="4" t="n"/>
+      <c r="AF7" s="4" t="n"/>
+      <c r="AG7" s="4" t="n"/>
+      <c r="AH7" s="4" t="n"/>
+      <c r="AI7" s="4" t="n"/>
+      <c r="AJ7" s="4" t="n"/>
+      <c r="AK7" s="4" t="n"/>
+      <c r="AL7" s="4" t="n"/>
+      <c r="AM7" s="4" t="n"/>
+      <c r="AN7" s="4" t="n"/>
     </row>
-    <row r="3" ht="13.65" customHeight="1">
-      <c r="A3" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s" s="2">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s" s="2">
-        <v>4</v>
-      </c>
-      <c r="F3" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="G3" s="3">
-        <v>9</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J3" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4"/>
-      <c r="AA3" s="4"/>
-      <c r="AB3" s="4"/>
-      <c r="AC3" s="4"/>
-      <c r="AD3" s="4"/>
-      <c r="AE3" s="4"/>
-      <c r="AF3" s="4"/>
-      <c r="AG3" s="4"/>
-      <c r="AH3" s="4"/>
-      <c r="AI3" s="4"/>
-      <c r="AJ3" s="4"/>
-      <c r="AK3" s="4"/>
-      <c r="AL3" s="4"/>
-      <c r="AM3" s="4"/>
-      <c r="AN3" s="4"/>
+    <row r="8" ht="13.65" customHeight="1" s="6">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>該筆資料ok</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>首次通報</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>學生</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>張羽彤</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>二年級</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>乙班</t>
+        </is>
+      </c>
+      <c r="G8" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>快篩陽</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>在家中</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>導師通知：學童昨日快篩陽，已視訊就診。</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="n"/>
+      <c r="L8" s="4" t="n"/>
+      <c r="M8" s="4" t="n"/>
+      <c r="N8" s="4" t="n"/>
+      <c r="O8" s="4" t="n"/>
+      <c r="P8" s="4" t="n"/>
+      <c r="Q8" s="4" t="n"/>
+      <c r="R8" s="4" t="n"/>
+      <c r="S8" s="4" t="n"/>
+      <c r="T8" s="4" t="n"/>
+      <c r="U8" s="4" t="n"/>
+      <c r="V8" s="4" t="n"/>
+      <c r="W8" s="4" t="n"/>
+      <c r="X8" s="4" t="n"/>
+      <c r="Y8" s="4" t="n"/>
+      <c r="Z8" s="4" t="n"/>
+      <c r="AA8" s="4" t="n"/>
+      <c r="AB8" s="4" t="n"/>
+      <c r="AC8" s="4" t="n"/>
+      <c r="AD8" s="4" t="n"/>
+      <c r="AE8" s="4" t="n"/>
+      <c r="AF8" s="4" t="n"/>
+      <c r="AG8" s="4" t="n"/>
+      <c r="AH8" s="4" t="n"/>
+      <c r="AI8" s="4" t="n"/>
+      <c r="AJ8" s="4" t="n"/>
+      <c r="AK8" s="4" t="n"/>
+      <c r="AL8" s="4" t="n"/>
+      <c r="AM8" s="4" t="n"/>
+      <c r="AN8" s="4" t="n"/>
     </row>
-    <row r="4" ht="13.65" customHeight="1">
-      <c r="A4" s="5">
-        <v>44725.391701388886</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s" s="2">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s" s="2">
-        <v>4</v>
-      </c>
-      <c r="F4" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="G4" s="3">
-        <v>5</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>7</v>
-      </c>
-      <c r="J4" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4"/>
-      <c r="AA4" s="4"/>
-      <c r="AB4" s="4"/>
-      <c r="AC4" s="4"/>
-      <c r="AD4" s="4"/>
-      <c r="AE4" s="4"/>
-      <c r="AF4" s="4"/>
-      <c r="AG4" s="4"/>
-      <c r="AH4" s="4"/>
-      <c r="AI4" s="4"/>
-      <c r="AJ4" s="4"/>
-      <c r="AK4" s="4"/>
-      <c r="AL4" s="4"/>
-      <c r="AM4" s="4"/>
-      <c r="AN4" s="4"/>
+    <row r="9" ht="13.65" customHeight="1" s="6">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>該筆資料ok</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>首次通報</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>學生</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>陳宥妤</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>三年級</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>乙班</t>
+        </is>
+      </c>
+      <c r="G9" s="4" t="n">
+        <v>23</v>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>疑似確診</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>在家中</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>導師通報：學童媽媽6/12快篩陽，學童目前無症狀，未快篩。</t>
+        </is>
+      </c>
+      <c r="K9" s="4" t="n"/>
+      <c r="L9" s="4" t="n"/>
+      <c r="M9" s="4" t="n"/>
+      <c r="N9" s="4" t="n"/>
+      <c r="O9" s="4" t="n"/>
+      <c r="P9" s="4" t="n"/>
+      <c r="Q9" s="4" t="n"/>
+      <c r="R9" s="4" t="n"/>
+      <c r="S9" s="4" t="n"/>
+      <c r="T9" s="4" t="n"/>
+      <c r="U9" s="4" t="n"/>
+      <c r="V9" s="4" t="n"/>
+      <c r="W9" s="4" t="n"/>
+      <c r="X9" s="4" t="n"/>
+      <c r="Y9" s="4" t="n"/>
+      <c r="Z9" s="4" t="n"/>
+      <c r="AA9" s="4" t="n"/>
+      <c r="AB9" s="4" t="n"/>
+      <c r="AC9" s="4" t="n"/>
+      <c r="AD9" s="4" t="n"/>
+      <c r="AE9" s="4" t="n"/>
+      <c r="AF9" s="4" t="n"/>
+      <c r="AG9" s="4" t="n"/>
+      <c r="AH9" s="4" t="n"/>
+      <c r="AI9" s="4" t="n"/>
+      <c r="AJ9" s="4" t="n"/>
+      <c r="AK9" s="4" t="n"/>
+      <c r="AL9" s="4" t="n"/>
+      <c r="AM9" s="4" t="n"/>
+      <c r="AN9" s="4" t="n"/>
     </row>
-    <row r="5" ht="13.65" customHeight="1">
-      <c r="A5" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s" s="2">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="E5" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="F5" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="G5" s="3">
-        <v>8</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="I5" t="s" s="2">
-        <v>7</v>
-      </c>
-      <c r="J5" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="4"/>
-      <c r="Z5" s="4"/>
-      <c r="AA5" s="4"/>
-      <c r="AB5" s="4"/>
-      <c r="AC5" s="4"/>
-      <c r="AD5" s="4"/>
-      <c r="AE5" s="4"/>
-      <c r="AF5" s="4"/>
-      <c r="AG5" s="4"/>
-      <c r="AH5" s="4"/>
-      <c r="AI5" s="4"/>
-      <c r="AJ5" s="4"/>
-      <c r="AK5" s="4"/>
-      <c r="AL5" s="4"/>
-      <c r="AM5" s="4"/>
-      <c r="AN5" s="4"/>
+    <row r="10" ht="13.65" customHeight="1" s="6">
+      <c r="A10" s="4" t="n"/>
+      <c r="B10" s="4" t="n"/>
+      <c r="C10" s="4" t="n"/>
+      <c r="D10" s="4" t="n"/>
+      <c r="E10" s="4" t="n"/>
+      <c r="F10" s="4" t="n"/>
+      <c r="G10" s="4" t="n"/>
+      <c r="H10" s="4" t="n"/>
+      <c r="I10" s="4" t="n"/>
+      <c r="J10" s="4" t="n"/>
+      <c r="K10" s="4" t="n"/>
+      <c r="L10" s="4" t="n"/>
+      <c r="M10" s="4" t="n"/>
+      <c r="N10" s="4" t="n"/>
+      <c r="O10" s="4" t="n"/>
+      <c r="P10" s="4" t="n"/>
+      <c r="Q10" s="4" t="n"/>
+      <c r="R10" s="4" t="n"/>
+      <c r="S10" s="4" t="n"/>
+      <c r="T10" s="4" t="n"/>
+      <c r="U10" s="4" t="n"/>
+      <c r="V10" s="4" t="n"/>
+      <c r="W10" s="4" t="n"/>
+      <c r="X10" s="4" t="n"/>
+      <c r="Y10" s="4" t="n"/>
+      <c r="Z10" s="4" t="n"/>
+      <c r="AA10" s="4" t="n"/>
+      <c r="AB10" s="4" t="n"/>
+      <c r="AC10" s="4" t="n"/>
+      <c r="AD10" s="4" t="n"/>
+      <c r="AE10" s="4" t="n"/>
+      <c r="AF10" s="4" t="n"/>
+      <c r="AG10" s="4" t="n"/>
+      <c r="AH10" s="4" t="n"/>
+      <c r="AI10" s="4" t="n"/>
+      <c r="AJ10" s="4" t="n"/>
+      <c r="AK10" s="4" t="n"/>
+      <c r="AL10" s="4" t="n"/>
+      <c r="AM10" s="4" t="n"/>
+      <c r="AN10" s="4" t="n"/>
     </row>
-    <row r="6" ht="13.65" customHeight="1">
-      <c r="A6" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s" s="2">
-        <v>2</v>
-      </c>
-      <c r="D6" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="E6" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="F6" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="G6" s="4"/>
-      <c r="H6" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="I6" t="s" s="2">
-        <v>7</v>
-      </c>
-      <c r="J6" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="4"/>
-      <c r="AA6" s="4"/>
-      <c r="AB6" s="4"/>
-      <c r="AC6" s="4"/>
-      <c r="AD6" s="4"/>
-      <c r="AE6" s="4"/>
-      <c r="AF6" s="4"/>
-      <c r="AG6" s="4"/>
-      <c r="AH6" s="4"/>
-      <c r="AI6" s="4"/>
-      <c r="AJ6" s="4"/>
-      <c r="AK6" s="4"/>
-      <c r="AL6" s="4"/>
-      <c r="AM6" s="4"/>
-      <c r="AN6" s="4"/>
-    </row>
-    <row r="7" ht="13.65" customHeight="1">
-      <c r="A7" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>4</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="N7" s="4"/>
-      <c r="O7" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="P7" t="s" s="2">
-        <v>7</v>
-      </c>
-      <c r="Q7" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="4"/>
-      <c r="AA7" s="4"/>
-      <c r="AB7" s="4"/>
-      <c r="AC7" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD7" s="4"/>
-      <c r="AE7" s="4"/>
-      <c r="AF7" s="4"/>
-      <c r="AG7" s="4"/>
-      <c r="AH7" s="4"/>
-      <c r="AI7" s="4"/>
-      <c r="AJ7" s="4"/>
-      <c r="AK7" s="4"/>
-      <c r="AL7" s="4"/>
-      <c r="AM7" s="4"/>
-      <c r="AN7" s="4"/>
-    </row>
-    <row r="8" ht="13.65" customHeight="1">
-      <c r="A8" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s" s="2">
-        <v>2</v>
-      </c>
-      <c r="D8" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="E8" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="3">
-        <v>2</v>
-      </c>
-      <c r="H8" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="I8" t="s" s="2">
-        <v>7</v>
-      </c>
-      <c r="J8" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4"/>
-      <c r="AA8" s="4"/>
-      <c r="AB8" s="4"/>
-      <c r="AC8" s="4"/>
-      <c r="AD8" s="4"/>
-      <c r="AE8" s="4"/>
-      <c r="AF8" s="4"/>
-      <c r="AG8" s="4"/>
-      <c r="AH8" s="4"/>
-      <c r="AI8" s="4"/>
-      <c r="AJ8" s="4"/>
-      <c r="AK8" s="4"/>
-      <c r="AL8" s="4"/>
-      <c r="AM8" s="4"/>
-      <c r="AN8" s="4"/>
-    </row>
-    <row r="9" ht="13.65" customHeight="1">
-      <c r="A9" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>1</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="E9" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="F9" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G9" s="3">
-        <v>2</v>
-      </c>
-      <c r="H9" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="I9" t="s" s="2">
-        <v>7</v>
-      </c>
-      <c r="J9" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="4"/>
-      <c r="Z9" s="4"/>
-      <c r="AA9" s="4"/>
-      <c r="AB9" s="4"/>
-      <c r="AC9" s="4"/>
-      <c r="AD9" s="4"/>
-      <c r="AE9" s="4"/>
-      <c r="AF9" s="4"/>
-      <c r="AG9" s="4"/>
-      <c r="AH9" s="4"/>
-      <c r="AI9" s="4"/>
-      <c r="AJ9" s="4"/>
-      <c r="AK9" s="4"/>
-      <c r="AL9" s="4"/>
-      <c r="AM9" s="4"/>
-      <c r="AN9" s="4"/>
-    </row>
-    <row r="10" ht="13.65" customHeight="1">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="4"/>
-      <c r="Y10" s="4"/>
-      <c r="Z10" s="4"/>
-      <c r="AA10" s="4"/>
-      <c r="AB10" s="4"/>
-      <c r="AC10" s="4"/>
-      <c r="AD10" s="4"/>
-      <c r="AE10" s="4"/>
-      <c r="AF10" s="4"/>
-      <c r="AG10" s="4"/>
-      <c r="AH10" s="4"/>
-      <c r="AI10" s="4"/>
-      <c r="AJ10" s="4"/>
-      <c r="AK10" s="4"/>
-      <c r="AL10" s="4"/>
-      <c r="AM10" s="4"/>
-      <c r="AN10" s="4"/>
-    </row>
-    <row r="11" ht="13.65" customHeight="1">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
-      <c r="X11" s="4"/>
-      <c r="Y11" s="4"/>
-      <c r="Z11" s="4"/>
-      <c r="AA11" s="4"/>
-      <c r="AB11" s="4"/>
-      <c r="AC11" s="4"/>
-      <c r="AD11" s="4"/>
-      <c r="AE11" s="4"/>
-      <c r="AF11" s="4"/>
-      <c r="AG11" s="4"/>
-      <c r="AH11" s="4"/>
-      <c r="AI11" s="4"/>
-      <c r="AJ11" s="4"/>
-      <c r="AK11" s="4"/>
-      <c r="AL11" s="4"/>
-      <c r="AM11" s="4"/>
-      <c r="AN11" s="4"/>
+    <row r="11" ht="13.65" customHeight="1" s="6">
+      <c r="A11" s="4" t="n"/>
+      <c r="B11" s="4" t="n"/>
+      <c r="C11" s="4" t="n"/>
+      <c r="D11" s="4" t="n"/>
+      <c r="E11" s="4" t="n"/>
+      <c r="F11" s="4" t="n"/>
+      <c r="G11" s="4" t="n"/>
+      <c r="H11" s="4" t="n"/>
+      <c r="I11" s="4" t="n"/>
+      <c r="J11" s="4" t="n"/>
+      <c r="K11" s="4" t="n"/>
+      <c r="L11" s="4" t="n"/>
+      <c r="M11" s="4" t="n"/>
+      <c r="N11" s="4" t="n"/>
+      <c r="O11" s="4" t="n"/>
+      <c r="P11" s="4" t="n"/>
+      <c r="Q11" s="4" t="n"/>
+      <c r="R11" s="4" t="n"/>
+      <c r="S11" s="4" t="n"/>
+      <c r="T11" s="4" t="n"/>
+      <c r="U11" s="4" t="n"/>
+      <c r="V11" s="4" t="n"/>
+      <c r="W11" s="4" t="n"/>
+      <c r="X11" s="4" t="n"/>
+      <c r="Y11" s="4" t="n"/>
+      <c r="Z11" s="4" t="n"/>
+      <c r="AA11" s="4" t="n"/>
+      <c r="AB11" s="4" t="n"/>
+      <c r="AC11" s="4" t="n"/>
+      <c r="AD11" s="4" t="n"/>
+      <c r="AE11" s="4" t="n"/>
+      <c r="AF11" s="4" t="n"/>
+      <c r="AG11" s="4" t="n"/>
+      <c r="AH11" s="4" t="n"/>
+      <c r="AI11" s="4" t="n"/>
+      <c r="AJ11" s="4" t="n"/>
+      <c r="AK11" s="4" t="n"/>
+      <c r="AL11" s="4" t="n"/>
+      <c r="AM11" s="4" t="n"/>
+      <c r="AN11" s="4" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="1" useFirstPageNumber="0" pageOrder="downThenOver"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12 &amp;K000000&amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
--- a/明正國小確診通報.xlsx
+++ b/明正國小確診通報.xlsx
@@ -1373,54 +1373,16 @@
       <c r="AN2" s="4" t="n"/>
     </row>
     <row r="3" ht="13.65" customHeight="1" s="6">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>該筆資料ok</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>首次通報</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>學生</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t>張羽彤</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="inlineStr">
-        <is>
-          <t>二年級</t>
-        </is>
-      </c>
-      <c r="F3" s="2" t="inlineStr">
-        <is>
-          <t>乙班</t>
-        </is>
-      </c>
-      <c r="G3" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="H3" s="2" t="inlineStr">
-        <is>
-          <t>快篩陽</t>
-        </is>
-      </c>
-      <c r="I3" s="2" t="inlineStr">
-        <is>
-          <t>在家中</t>
-        </is>
-      </c>
-      <c r="J3" s="2" t="inlineStr">
-        <is>
-          <t>導師通知：學童昨日快篩陽，已視訊就診。</t>
-        </is>
-      </c>
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="4" t="n"/>
+      <c r="C3" s="4" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="4" t="n"/>
+      <c r="F3" s="4" t="n"/>
+      <c r="G3" s="4" t="n"/>
+      <c r="H3" s="4" t="n"/>
+      <c r="I3" s="4" t="n"/>
+      <c r="J3" s="4" t="n"/>
       <c r="K3" s="4" t="n"/>
       <c r="L3" s="4" t="n"/>
       <c r="M3" s="4" t="n"/>
@@ -1453,54 +1415,16 @@
       <c r="AN3" s="4" t="n"/>
     </row>
     <row r="4" ht="13.65" customHeight="1" s="6">
-      <c r="A4" s="7" t="inlineStr">
-        <is>
-          <t>該筆資料ok</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>首次通報</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>學生</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>陳宥妤</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>三年級</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>乙班</t>
-        </is>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>23</v>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>疑似確診</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>在家中</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>導師通報：學童媽媽6/12快篩陽，學童目前無症狀，未快篩。</t>
-        </is>
-      </c>
+      <c r="A4" s="7" t="n"/>
+      <c r="B4" s="2" t="n"/>
+      <c r="C4" s="2" t="n"/>
+      <c r="D4" s="2" t="n"/>
+      <c r="E4" s="2" t="n"/>
+      <c r="F4" s="2" t="n"/>
+      <c r="G4" s="4" t="n"/>
+      <c r="H4" s="2" t="n"/>
+      <c r="I4" s="2" t="n"/>
+      <c r="J4" s="2" t="n"/>
       <c r="K4" s="4" t="n"/>
       <c r="L4" s="4" t="n"/>
       <c r="M4" s="4" t="n"/>
@@ -1533,21 +1457,9 @@
       <c r="AN4" s="4" t="n"/>
     </row>
     <row r="5" ht="13.65" customHeight="1" s="6">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>該筆資料ok</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>之前已有通報，本次為資訊更新</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>科任教師</t>
-        </is>
-      </c>
+      <c r="A5" s="4" t="n"/>
+      <c r="B5" s="4" t="n"/>
+      <c r="C5" s="4" t="n"/>
       <c r="D5" s="4" t="n"/>
       <c r="E5" s="4" t="n"/>
       <c r="F5" s="4" t="n"/>
@@ -1562,29 +1474,11 @@
       <c r="O5" s="4" t="n"/>
       <c r="P5" s="4" t="n"/>
       <c r="Q5" s="4" t="n"/>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>陳嘉慧</t>
-        </is>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>69</v>
-      </c>
-      <c r="T5" s="2" t="inlineStr">
-        <is>
-          <t>疑似確診</t>
-        </is>
-      </c>
-      <c r="U5" s="2" t="inlineStr">
-        <is>
-          <t>在家中</t>
-        </is>
-      </c>
-      <c r="V5" s="2" t="inlineStr">
-        <is>
-          <t>老師今日續報：婆婆及大哥也快篩陽。</t>
-        </is>
-      </c>
+      <c r="R5" s="4" t="n"/>
+      <c r="S5" s="4" t="n"/>
+      <c r="T5" s="4" t="n"/>
+      <c r="U5" s="4" t="n"/>
+      <c r="V5" s="4" t="n"/>
       <c r="W5" s="4" t="n"/>
       <c r="X5" s="4" t="n"/>
       <c r="Y5" s="4" t="n"/>
@@ -1592,11 +1486,7 @@
       <c r="AA5" s="4" t="n"/>
       <c r="AB5" s="4" t="n"/>
       <c r="AC5" s="4" t="n"/>
-      <c r="AD5" s="2" t="inlineStr">
-        <is>
-          <t>女</t>
-        </is>
-      </c>
+      <c r="AD5" s="4" t="n"/>
       <c r="AE5" s="4" t="n"/>
       <c r="AF5" s="4" t="n"/>
       <c r="AG5" s="4" t="n"/>
@@ -1609,54 +1499,16 @@
       <c r="AN5" s="4" t="n"/>
     </row>
     <row r="6" ht="13.65" customHeight="1" s="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>該筆資料ok</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>首次通報</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>學生</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>潘竑杰</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>一年級</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>乙班</t>
-        </is>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>疑似確診</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>在家中</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>導師通報：同住爸爸、阿公、阿嬤皆快篩陽。學童目前快篩陰。</t>
-        </is>
-      </c>
+      <c r="A6" s="4" t="n"/>
+      <c r="B6" s="4" t="n"/>
+      <c r="C6" s="4" t="n"/>
+      <c r="D6" s="4" t="n"/>
+      <c r="E6" s="4" t="n"/>
+      <c r="F6" s="4" t="n"/>
+      <c r="G6" s="4" t="n"/>
+      <c r="H6" s="4" t="n"/>
+      <c r="I6" s="4" t="n"/>
+      <c r="J6" s="4" t="n"/>
       <c r="K6" s="4" t="n"/>
       <c r="L6" s="4" t="n"/>
       <c r="M6" s="4" t="n"/>
@@ -1689,54 +1541,16 @@
       <c r="AN6" s="4" t="n"/>
     </row>
     <row r="7" ht="13.65" customHeight="1" s="6">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>該筆資料ok</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="inlineStr">
-        <is>
-          <t>首次通報</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>學生</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>梁哲豪</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>六年級</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>丁班</t>
-        </is>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>疑似確診</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>在家中</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>導師通報：學童媽媽昨日6/14確診，學童目前無症狀，未快篩。已告知導師明天畢業典禮勿到校。</t>
-        </is>
-      </c>
+      <c r="A7" s="4" t="n"/>
+      <c r="B7" s="4" t="n"/>
+      <c r="C7" s="4" t="n"/>
+      <c r="D7" s="4" t="n"/>
+      <c r="E7" s="4" t="n"/>
+      <c r="F7" s="4" t="n"/>
+      <c r="G7" s="4" t="n"/>
+      <c r="H7" s="4" t="n"/>
+      <c r="I7" s="4" t="n"/>
+      <c r="J7" s="4" t="n"/>
       <c r="K7" s="4" t="n"/>
       <c r="L7" s="4" t="n"/>
       <c r="M7" s="4" t="n"/>
@@ -1769,54 +1583,16 @@
       <c r="AN7" s="4" t="n"/>
     </row>
     <row r="8" ht="13.65" customHeight="1" s="6">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>該筆資料ok</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="inlineStr">
-        <is>
-          <t>首次通報</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>學生</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>張羽彤</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>二年級</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>乙班</t>
-        </is>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>快篩陽</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>在家中</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>導師通知：學童昨日快篩陽，已視訊就診。</t>
-        </is>
-      </c>
+      <c r="A8" s="4" t="n"/>
+      <c r="B8" s="4" t="n"/>
+      <c r="C8" s="4" t="n"/>
+      <c r="D8" s="4" t="n"/>
+      <c r="E8" s="4" t="n"/>
+      <c r="F8" s="4" t="n"/>
+      <c r="G8" s="4" t="n"/>
+      <c r="H8" s="4" t="n"/>
+      <c r="I8" s="4" t="n"/>
+      <c r="J8" s="4" t="n"/>
       <c r="K8" s="4" t="n"/>
       <c r="L8" s="4" t="n"/>
       <c r="M8" s="4" t="n"/>
@@ -1849,54 +1625,16 @@
       <c r="AN8" s="4" t="n"/>
     </row>
     <row r="9" ht="13.65" customHeight="1" s="6">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>該筆資料ok</t>
-        </is>
-      </c>
-      <c r="B9" s="2" t="inlineStr">
-        <is>
-          <t>首次通報</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>學生</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>陳宥妤</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>三年級</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>乙班</t>
-        </is>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>23</v>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>疑似確診</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>在家中</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>導師通報：學童媽媽6/12快篩陽，學童目前無症狀，未快篩。</t>
-        </is>
-      </c>
+      <c r="A9" s="4" t="n"/>
+      <c r="B9" s="4" t="n"/>
+      <c r="C9" s="4" t="n"/>
+      <c r="D9" s="4" t="n"/>
+      <c r="E9" s="4" t="n"/>
+      <c r="F9" s="4" t="n"/>
+      <c r="G9" s="4" t="n"/>
+      <c r="H9" s="4" t="n"/>
+      <c r="I9" s="4" t="n"/>
+      <c r="J9" s="4" t="n"/>
       <c r="K9" s="4" t="n"/>
       <c r="L9" s="4" t="n"/>
       <c r="M9" s="4" t="n"/>

--- a/明正國小確診通報.xlsx
+++ b/明正國小確診通報.xlsx
@@ -1183,7 +1183,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AN11"/>
+  <dimension ref="A1:AR11"/>
   <sheetViews>
     <sheetView showGridLines="0" defaultGridColor="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1208,8 +1208,8 @@
     <col width="16.3516" customWidth="1" style="1" min="17" max="17"/>
     <col width="15.8516" customWidth="1" style="1" min="18" max="18"/>
     <col width="19.3516" customWidth="1" style="1" min="19" max="19"/>
-    <col width="18.8516" customWidth="1" style="1" min="20" max="40"/>
-    <col width="12.6719" customWidth="1" style="1" min="41" max="16384"/>
+    <col width="18.8516" customWidth="1" style="1" min="20" max="44"/>
+    <col width="12.6719" customWidth="1" style="1" min="45" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.65" customHeight="1" s="6">
@@ -1230,17 +1230,17 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>潘竑杰</t>
+          <t>江宥囿</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
         <is>
-          <t>一年級</t>
+          <t>二年級</t>
         </is>
       </c>
       <c r="F1" s="2" t="inlineStr">
         <is>
-          <t>乙班</t>
+          <t>庚班</t>
         </is>
       </c>
       <c r="G1" s="4" t="n">
@@ -1258,7 +1258,7 @@
       </c>
       <c r="J1" s="2" t="inlineStr">
         <is>
-          <t>導師通報：同住爸爸、阿公、阿嬤皆快篩陽。學童目前快篩陰。</t>
+          <t>同住阿嬤確診6/23</t>
         </is>
       </c>
       <c r="K1" s="4" t="n"/>
@@ -1288,9 +1288,39 @@
       <c r="AI1" s="4" t="n"/>
       <c r="AJ1" s="4" t="n"/>
       <c r="AK1" s="4" t="n"/>
-      <c r="AL1" s="4" t="n"/>
-      <c r="AM1" s="4" t="n"/>
-      <c r="AN1" s="4" t="n"/>
+      <c r="AL1" s="2" t="inlineStr">
+        <is>
+          <t>2022/6/26 下午 2:01:45</t>
+        </is>
+      </c>
+      <c r="AM1" s="2" t="inlineStr">
+        <is>
+          <t>首次通報</t>
+        </is>
+      </c>
+      <c r="AN1" s="2" t="inlineStr">
+        <is>
+          <t>學生</t>
+        </is>
+      </c>
+      <c r="AO1" s="2" t="inlineStr">
+        <is>
+          <t>江宥囿</t>
+        </is>
+      </c>
+      <c r="AP1" s="2" t="inlineStr">
+        <is>
+          <t>二年級</t>
+        </is>
+      </c>
+      <c r="AQ1" s="2" t="inlineStr">
+        <is>
+          <t>庚班</t>
+        </is>
+      </c>
+      <c r="AR1" s="4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" ht="13.65" customHeight="1" s="6">
       <c r="A2" s="2" t="inlineStr">
@@ -1310,25 +1340,25 @@
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>梁哲豪</t>
+          <t>陳琳媛</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>六年級</t>
+          <t>三年級</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>丁班</t>
+          <t>戊班</t>
         </is>
       </c>
       <c r="G2" s="4" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="H2" s="2" t="inlineStr">
         <is>
-          <t>疑似確診</t>
+          <t>快篩陽</t>
         </is>
       </c>
       <c r="I2" s="2" t="inlineStr">
@@ -1336,11 +1366,7 @@
           <t>在家中</t>
         </is>
       </c>
-      <c r="J2" s="2" t="inlineStr">
-        <is>
-          <t>導師通報：學童媽媽昨日6/14確診，學童目前無症狀，未快篩。已告知導師明天畢業典禮勿到校。</t>
-        </is>
-      </c>
+      <c r="J2" s="4" t="n"/>
       <c r="K2" s="4" t="n"/>
       <c r="L2" s="4" t="n"/>
       <c r="M2" s="4" t="n"/>
@@ -1368,20 +1394,84 @@
       <c r="AI2" s="4" t="n"/>
       <c r="AJ2" s="4" t="n"/>
       <c r="AK2" s="4" t="n"/>
-      <c r="AL2" s="4" t="n"/>
-      <c r="AM2" s="4" t="n"/>
-      <c r="AN2" s="4" t="n"/>
+      <c r="AL2" s="2" t="inlineStr">
+        <is>
+          <t>2022/6/26 下午 3:14:34</t>
+        </is>
+      </c>
+      <c r="AM2" s="2" t="inlineStr">
+        <is>
+          <t>首次通報</t>
+        </is>
+      </c>
+      <c r="AN2" s="2" t="inlineStr">
+        <is>
+          <t>學生</t>
+        </is>
+      </c>
+      <c r="AO2" s="2" t="inlineStr">
+        <is>
+          <t>陳琳媛</t>
+        </is>
+      </c>
+      <c r="AP2" s="2" t="inlineStr">
+        <is>
+          <t>三年級</t>
+        </is>
+      </c>
+      <c r="AQ2" s="2" t="inlineStr">
+        <is>
+          <t>戊班</t>
+        </is>
+      </c>
+      <c r="AR2" s="4" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="3" ht="13.65" customHeight="1" s="6">
-      <c r="A3" s="4" t="n"/>
-      <c r="B3" s="4" t="n"/>
-      <c r="C3" s="4" t="n"/>
-      <c r="D3" s="2" t="n"/>
-      <c r="E3" s="4" t="n"/>
-      <c r="F3" s="4" t="n"/>
-      <c r="G3" s="4" t="n"/>
-      <c r="H3" s="4" t="n"/>
-      <c r="I3" s="4" t="n"/>
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>該筆資料ok</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>首次通報</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>學生</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>吳承翰</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>四年級</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>甲班</t>
+        </is>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="H3" s="2" t="inlineStr">
+        <is>
+          <t>快篩陽</t>
+        </is>
+      </c>
+      <c r="I3" s="2" t="inlineStr">
+        <is>
+          <t>在家中</t>
+        </is>
+      </c>
       <c r="J3" s="4" t="n"/>
       <c r="K3" s="4" t="n"/>
       <c r="L3" s="4" t="n"/>
@@ -1410,21 +1500,89 @@
       <c r="AI3" s="4" t="n"/>
       <c r="AJ3" s="4" t="n"/>
       <c r="AK3" s="4" t="n"/>
-      <c r="AL3" s="4" t="n"/>
-      <c r="AM3" s="4" t="n"/>
-      <c r="AN3" s="4" t="n"/>
+      <c r="AL3" s="2" t="inlineStr">
+        <is>
+          <t>2022/6/26 下午 7:49:07</t>
+        </is>
+      </c>
+      <c r="AM3" s="2" t="inlineStr">
+        <is>
+          <t>首次通報</t>
+        </is>
+      </c>
+      <c r="AN3" s="2" t="inlineStr">
+        <is>
+          <t>學生</t>
+        </is>
+      </c>
+      <c r="AO3" s="2" t="inlineStr">
+        <is>
+          <t>吳承翰</t>
+        </is>
+      </c>
+      <c r="AP3" s="2" t="inlineStr">
+        <is>
+          <t>四年級</t>
+        </is>
+      </c>
+      <c r="AQ3" s="2" t="inlineStr">
+        <is>
+          <t>甲班</t>
+        </is>
+      </c>
+      <c r="AR3" s="4" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="4" ht="13.65" customHeight="1" s="6">
-      <c r="A4" s="7" t="n"/>
-      <c r="B4" s="2" t="n"/>
-      <c r="C4" s="2" t="n"/>
-      <c r="D4" s="2" t="n"/>
-      <c r="E4" s="2" t="n"/>
-      <c r="F4" s="2" t="n"/>
-      <c r="G4" s="4" t="n"/>
-      <c r="H4" s="2" t="n"/>
-      <c r="I4" s="2" t="n"/>
-      <c r="J4" s="2" t="n"/>
+      <c r="A4" s="7" t="inlineStr">
+        <is>
+          <t>該筆資料ok</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>首次通報</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>學生</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>江宥囿</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>二年級</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>庚班</t>
+        </is>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>疑似確診</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>在家中</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>同住阿嬤確診6/23</t>
+        </is>
+      </c>
       <c r="K4" s="4" t="n"/>
       <c r="L4" s="4" t="n"/>
       <c r="M4" s="4" t="n"/>
@@ -1452,9 +1610,37 @@
       <c r="AI4" s="4" t="n"/>
       <c r="AJ4" s="4" t="n"/>
       <c r="AK4" s="4" t="n"/>
-      <c r="AL4" s="4" t="n"/>
-      <c r="AM4" s="4" t="n"/>
-      <c r="AN4" s="4" t="n"/>
+      <c r="AL4" s="7" t="n">
+        <v>44738.58454861111</v>
+      </c>
+      <c r="AM4" s="2" t="inlineStr">
+        <is>
+          <t>首次通報</t>
+        </is>
+      </c>
+      <c r="AN4" s="2" t="inlineStr">
+        <is>
+          <t>學生</t>
+        </is>
+      </c>
+      <c r="AO4" s="2" t="inlineStr">
+        <is>
+          <t>江宥囿</t>
+        </is>
+      </c>
+      <c r="AP4" s="2" t="inlineStr">
+        <is>
+          <t>二年級</t>
+        </is>
+      </c>
+      <c r="AQ4" s="2" t="inlineStr">
+        <is>
+          <t>庚班</t>
+        </is>
+      </c>
+      <c r="AR4" s="4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" ht="13.65" customHeight="1" s="6">
       <c r="A5" s="4" t="n"/>
@@ -1497,6 +1683,10 @@
       <c r="AL5" s="4" t="n"/>
       <c r="AM5" s="4" t="n"/>
       <c r="AN5" s="4" t="n"/>
+      <c r="AO5" s="4" t="n"/>
+      <c r="AP5" s="4" t="n"/>
+      <c r="AQ5" s="4" t="n"/>
+      <c r="AR5" s="4" t="n"/>
     </row>
     <row r="6" ht="13.65" customHeight="1" s="6">
       <c r="A6" s="4" t="n"/>
@@ -1539,6 +1729,10 @@
       <c r="AL6" s="4" t="n"/>
       <c r="AM6" s="4" t="n"/>
       <c r="AN6" s="4" t="n"/>
+      <c r="AO6" s="4" t="n"/>
+      <c r="AP6" s="4" t="n"/>
+      <c r="AQ6" s="4" t="n"/>
+      <c r="AR6" s="4" t="n"/>
     </row>
     <row r="7" ht="13.65" customHeight="1" s="6">
       <c r="A7" s="4" t="n"/>
@@ -1581,6 +1775,10 @@
       <c r="AL7" s="4" t="n"/>
       <c r="AM7" s="4" t="n"/>
       <c r="AN7" s="4" t="n"/>
+      <c r="AO7" s="4" t="n"/>
+      <c r="AP7" s="4" t="n"/>
+      <c r="AQ7" s="4" t="n"/>
+      <c r="AR7" s="4" t="n"/>
     </row>
     <row r="8" ht="13.65" customHeight="1" s="6">
       <c r="A8" s="4" t="n"/>
@@ -1623,6 +1821,10 @@
       <c r="AL8" s="4" t="n"/>
       <c r="AM8" s="4" t="n"/>
       <c r="AN8" s="4" t="n"/>
+      <c r="AO8" s="4" t="n"/>
+      <c r="AP8" s="4" t="n"/>
+      <c r="AQ8" s="4" t="n"/>
+      <c r="AR8" s="4" t="n"/>
     </row>
     <row r="9" ht="13.65" customHeight="1" s="6">
       <c r="A9" s="4" t="n"/>
@@ -1665,6 +1867,10 @@
       <c r="AL9" s="4" t="n"/>
       <c r="AM9" s="4" t="n"/>
       <c r="AN9" s="4" t="n"/>
+      <c r="AO9" s="4" t="n"/>
+      <c r="AP9" s="4" t="n"/>
+      <c r="AQ9" s="4" t="n"/>
+      <c r="AR9" s="4" t="n"/>
     </row>
     <row r="10" ht="13.65" customHeight="1" s="6">
       <c r="A10" s="4" t="n"/>
@@ -1707,6 +1913,10 @@
       <c r="AL10" s="4" t="n"/>
       <c r="AM10" s="4" t="n"/>
       <c r="AN10" s="4" t="n"/>
+      <c r="AO10" s="4" t="n"/>
+      <c r="AP10" s="4" t="n"/>
+      <c r="AQ10" s="4" t="n"/>
+      <c r="AR10" s="4" t="n"/>
     </row>
     <row r="11" ht="13.65" customHeight="1" s="6">
       <c r="A11" s="4" t="n"/>
@@ -1749,6 +1959,10 @@
       <c r="AL11" s="4" t="n"/>
       <c r="AM11" s="4" t="n"/>
       <c r="AN11" s="4" t="n"/>
+      <c r="AO11" s="4" t="n"/>
+      <c r="AP11" s="4" t="n"/>
+      <c r="AQ11" s="4" t="n"/>
+      <c r="AR11" s="4" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
